--- a/整合結果/EPU匯出結果/2025-06-13/2025-06-13_聯合報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-13/2025-06-13_聯合報_EPU檢查結果.xlsx
@@ -2146,12 +2146,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-06-13_1131_聯合產經_兼職跑計程車10年扣除成本賺500萬！小師傅：以前用時間拚錢現在用錢換回人生.txt</t>
+          <t>2025-06-13_1300_聯合產經_用GPU來做AI是不健康的！為何他認為NPU如「哆啦A夢式AI」 對人類及地球可能更理想？.txt</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>半導體、電力</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>干擾、動盪、疑慮、緊張</t>
         </is>
       </c>
     </row>
@@ -2168,22 +2178,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-06-13_1300_聯合產經_用GPU來做AI是不健康的！為何他認為NPU如「哆啦A夢式AI」 對人類及地球可能更理想？.txt</t>
+          <t>2025-06-13_1519_聯合產經_台積電股價成房市風向球？ 專家：關稅未明房市短暫回溫.txt</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>半導體、電力</t>
+          <t>台積電、房市、房價、股市</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>信用管制</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>干擾、動盪、疑慮、緊張</t>
+          <t>不確定、不確定性、波動、政策不確定性</t>
         </is>
       </c>
     </row>
@@ -2200,27 +2215,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-06-13_1519_聯合產經_台積電股價成房市風向球？ 專家：關稅未明房市短暫回溫.txt</t>
+          <t>2025-06-13_1523_聯合產經_首季六都公寓房價漲贏電梯大樓 這地年漲二成居冠.txt</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>台積電、房市、房價、股市</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>信用管制</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>不確定、不確定性、波動、政策不確定性</t>
+          <t>不動產、房市、房價、景氣</t>
         </is>
       </c>
     </row>
@@ -2237,17 +2242,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-06-13_1523_聯合產經_首季六都公寓房價漲贏電梯大樓 這地年漲二成居冠.txt</t>
+          <t>2025-06-13_1528_聯合產經_鴻海量子密碼重大成果 獲密碼學頂尖會議Crypto接收.txt</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>不動產、房市、房價、景氣</t>
         </is>
       </c>
     </row>
@@ -2264,12 +2264,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-06-13_1528_聯合產經_鴻海量子密碼重大成果 獲密碼學頂尖會議Crypto接收.txt</t>
+          <t>2025-06-13_1539_聯合產經_SCFI運價指數終止連五漲！美西線大跌、歐洲唯一逆勢上揚.txt</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>美元、海運</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2291,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-06-13_1539_聯合產經_SCFI運價指數終止連五漲！美西線大跌、歐洲唯一逆勢上揚.txt</t>
+          <t>2025-06-13_1550_聯合產經_東元帶領供應商低碳轉型 2025「1+N 碳管理示範團隊計畫」啟動.txt</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2296,7 +2301,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>美元、海運</t>
+          <t>供應鏈、能源、經濟、電力</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>淨零</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2323,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-06-13_1550_聯合產經_東元帶領供應商低碳轉型 2025「1+N 碳管理示範團隊計畫」啟動.txt</t>
+          <t>2025-06-13_1601_聯合產經_聯發科長期投入產學資源 促進半導體前瞻技術研發與高階人才培育.txt</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2323,12 +2333,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>供應鏈、能源、經濟、電力</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>淨零</t>
+          <t>半導體、半導體產業</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2350,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-06-13_1601_聯合產經_聯發科長期投入產學資源 促進半導體前瞻技術研發與高階人才培育.txt</t>
+          <t>2025-06-13_1603_聯合產經_宜蘭子弟推動聽力平權 家鄉設總部可望年產百萬台助聽器.txt</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2353,9 +2358,9 @@
           <t>✘ 否</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>半導體、半導體產業</t>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>障礙</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2377,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-06-13_1603_聯合產經_宜蘭子弟推動聽力平權 家鄉設總部可望年產百萬台助聽器.txt</t>
+          <t>2025-06-13_1645_聯合產經_翁健接任元大金董事長 延續穩健經營路線.txt</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2380,9 +2385,9 @@
           <t>✘ 否</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>障礙</t>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>金融</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2404,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-06-13_1645_聯合產經_翁健接任元大金董事長 延續穩健經營路線.txt</t>
+          <t>2025-06-13_1717_聯合產經_林明成之子林知延 正式出掌華南金副董事長.txt</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2407,9 +2412,9 @@
           <t>✘ 否</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>金融</t>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>央行</t>
         </is>
       </c>
     </row>
@@ -2426,17 +2431,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-06-13_1717_聯合產經_林明成之子林知延 正式出掌華南金副董事長.txt</t>
+          <t>2025-06-13_1722_聯合產經_和泰汽車蘇純興出任副董事長 續掌總經理領軍再創高峰.txt</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>央行</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-06-13_1722_聯合產經_和泰汽車蘇純興出任副董事長 續掌總經理領軍再創高峰.txt</t>
+          <t>2025-06-13_1725_聯合產經_強強結盟！微星攜手紅牛搶攻電競市場.txt</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2475,12 +2475,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-06-13_1725_聯合產經_強強結盟！微星攜手紅牛搶攻電競市場.txt</t>
+          <t>2025-06-13_1745_聯合產經_高鐵董事會今推選 史哲任董事長、陳惠裕任總經理.txt</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>台股</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>對等關稅</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2507,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-06-13_1745_聯合產經_高鐵董事會今推選 史哲任董事長、陳惠裕任總經理.txt</t>
+          <t>2025-06-13_1800_聯合產經_嚴格取締！為有利台美談判 卓揆發聲：防轉運、洗產地.txt</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2507,12 +2517,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>台股</t>
+          <t>美元、貿易、經濟</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>對等關稅</t>
+          <t>低價傾銷、傾銷、貿易政策、關稅政策</t>
         </is>
       </c>
     </row>
@@ -2529,22 +2539,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-06-13_1800_聯合產經_嚴格取締！為有利台美談判 卓揆發聲：防轉運、洗產地.txt</t>
+          <t>2025-06-13_1815_聯合產經_新台幣升值成第2季財報挑戰 但法人看好兩大族群.txt</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>美元、貿易、經濟</t>
+          <t>半導體、半導體產業、台股、股市</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>低價傾銷、傾銷、貿易政策、關稅政策</t>
+          <t>殖利率、對等關稅、關稅政策</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>不確定、不確定性、反彈</t>
         </is>
       </c>
     </row>
@@ -2561,27 +2576,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-06-13_1815_聯合產經_新台幣升值成第2季財報挑戰 但法人看好兩大族群.txt</t>
+          <t>2025-06-13_1826_聯合產經_致力 ESG！兆豐銀行再發綠色債券 累計已發6檔共80億元.txt</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>半導體、半導體產業、台股、股市</t>
+          <t>太陽能、金融、能源、經濟、綠能</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>殖利率、對等關稅、關稅政策</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>不確定、不確定性、反彈</t>
+          <t>淨零</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2608,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-06-13_1826_聯合產經_致力 ESG！兆豐銀行再發綠色債券 累計已發6檔共80億元.txt</t>
+          <t>2025-06-13_1833_聯合產經_合庫銀再發行綠色金融債 ESG 債券累計發行量突破百億元.txt</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2608,7 +2618,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>太陽能、金融、能源、經濟、綠能</t>
+          <t>太陽能、金融、能源、經濟</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2630,7 +2640,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-06-13_1833_聯合產經_合庫銀再發行綠色金融債 ESG 債券累計發行量突破百億元.txt</t>
+          <t>2025-06-13_1839_聯合產經_蕭美琴接見創投公會 盼攜手打造新創雨林生態系.txt</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2640,12 +2650,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>太陽能、金融、能源、經濟</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>淨零</t>
+          <t>商業、經濟、經濟體</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2667,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-06-13_1839_聯合產經_蕭美琴接見創投公會 盼攜手打造新創雨林生態系.txt</t>
+          <t>2025-06-13_1850_聯合產經_因應美國關稅衝擊 勞長洪申翰赴新竹與工會座談.txt</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2670,9 +2675,14 @@
           <t>✘ 否</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>商業、經濟、經濟體</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>對等關稅、關稅措施、關稅政策</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>不確定、不確定性</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2699,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-06-13_1850_聯合產經_因應美國關稅衝擊 勞長洪申翰赴新竹與工會座談.txt</t>
+          <t>2025-06-13_1900_聯合產經_德國經濟辦事處來訪 韓國瑜：台德科技經貿合作深化.txt</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2697,14 +2707,14 @@
           <t>✘ 否</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>對等關稅、關稅措施、關稅政策</t>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>半導體、半導體產業、台積電、美元、能源、貿易、經貿、經濟</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>不確定、不確定性</t>
+          <t>障礙</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2731,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-06-13_1900_聯合產經_德國經濟辦事處來訪 韓國瑜：台德科技經貿合作深化.txt</t>
+          <t>2025-06-13_1927_聯合產經_去年為全球第六大淨債權國...今退後一名 央行：退步不是壞事.txt</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2731,12 +2741,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>半導體、半導體產業、台積電、美元、能源、貿易、經貿、經濟</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>障礙</t>
+          <t>台股、外資、股市、金融、美元、經濟</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>中央銀行、央行</t>
         </is>
       </c>
     </row>
@@ -2753,22 +2763,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-06-13_1927_聯合產經_去年為全球第六大淨債權國...今退後一名 央行：退步不是壞事.txt</t>
+          <t>2025-06-13_2037_聯合產經_逢甲大學樹倒壓死男大生 女友全程目睹盼叫醒愛人無奈喚不回.txt</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>台股、外資、股市、金融、美元、經濟</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>中央銀行、央行</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-06-13_2037_聯合產經_逢甲大學樹倒壓死男大生 女友全程目睹盼叫醒愛人無奈喚不回.txt</t>
+          <t>2025-06-13_2045_聯合產經_0050拆分後還是投資首選嗎？和同樣追蹤台灣50指數的006208，想抱10年以上選誰好？.txt</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>台股、股市</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>殖利率</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2817,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-06-13_2045_聯合產經_0050拆分後還是投資首選嗎？和同樣追蹤台灣50指數的006208，想抱10年以上選誰好？.txt</t>
+          <t>2025-06-13_2045_聯合產經_00919 ETF 攻略／配息0.72元、殖利率近13% 下周除息要先上車嗎？（2025最新）.txt</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2817,12 +2827,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>台股、股市</t>
+          <t>台股</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>降息、殖利率</t>
         </is>
       </c>
     </row>
@@ -2839,22 +2849,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-06-13_2045_聯合產經_00919 ETF 攻略／配息0.72元、殖利率近13% 下周除息要先上車嗎？（2025最新）.txt</t>
+          <t>2025-06-13_2045_聯合產經_穩定幣大戰1／99%穩定幣掛勾美元 各國開打貨幣戰 台幣穩定幣得找台積電幫忙.txt</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>台股</t>
+          <t>半導體、台股、台積電、外資、金融、金融機構、美元、商業、貿易</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>降息、殖利率</t>
+          <t>央行</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>波動、美中貿易戰</t>
         </is>
       </c>
     </row>
@@ -2871,27 +2886,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-06-13_2045_聯合產經_穩定幣大戰1／99%穩定幣掛勾美元 各國開打貨幣戰 台幣穩定幣得找台積電幫忙.txt</t>
+          <t>2025-06-13_2045_聯合產經_職場活用AI術1／上萬通客訴全靠AI當軍師 菜鳥不敢電老鳥 討厭的事交給AI就對了.txt</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>半導體、台股、台積電、外資、金融、金融機構、美元、商業、貿易</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>央行</t>
+          <t>經濟</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>波動、美中貿易戰</t>
+          <t>考驗、疑慮、難題</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2918,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-06-13_2045_聯合產經_職場活用AI術1／上萬通客訴全靠AI當軍師 菜鳥不敢電老鳥 討厭的事交給AI就對了.txt</t>
+          <t>2025-06-13_2045_聯合產經_長榮、萬海市值大躍進.txt</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2918,12 +2928,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>經濟</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>考驗、疑慮、難題</t>
+          <t>美元、海運、經濟</t>
         </is>
       </c>
     </row>
@@ -2940,17 +2945,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-06-13_2045_聯合產經_長榮、萬海市值大躍進.txt</t>
+          <t>2025-06-13_2103_聯合產經_央行戰熱錢、匯市爆量震盪 因「風向變」加重阻升力道.txt</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>美元、海運、經濟</t>
+          <t>外匯、外資、股市、美元、貿易、匯市</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>中央銀行、央行、拋匯</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>反彈</t>
         </is>
       </c>
     </row>
@@ -2967,27 +2982,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-06-13_2103_聯合產經_央行戰熱錢、匯市爆量震盪 因「風向變」加重阻升力道.txt</t>
+          <t>2025-06-13_2114_聯合產經_0050拆分後還是投資首選嗎？和同樣追蹤台灣50指數的006208，想抱10年以上選誰好？.txt</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>外匯、外資、股市、美元、貿易、匯市</t>
+          <t>台股、股市</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>中央銀行、央行、拋匯</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>反彈</t>
+          <t>殖利率</t>
         </is>
       </c>
     </row>
@@ -3004,22 +3014,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-06-13_2114_聯合產經_0050拆分後還是投資首選嗎？和同樣追蹤台灣50指數的006208，想抱10年以上選誰好？.txt</t>
+          <t>2025-06-13_2114_聯合產經_穩定幣大戰1／99%穩定幣掛勾美元 各國開打貨幣戰 台幣穩定幣得找台積電幫忙.txt</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>✘ 否</t>
+          <t>✔ 是</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>台股、股市</t>
+          <t>半導體、台股、台積電、外資、金融、金融機構、美元、商業、貿易</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>央行</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>波動、美中貿易戰</t>
         </is>
       </c>
     </row>
@@ -3036,27 +3051,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-06-13_2114_聯合產經_穩定幣大戰1／99%穩定幣掛勾美元 各國開打貨幣戰 台幣穩定幣得找台積電幫忙.txt</t>
+          <t>2025-06-13_2115_聯合產經_00919 ETF 攻略／配息0.72元、殖利率近13% 下周除息要先上車嗎？（2025最新）.txt</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>✔ 是</t>
+          <t>✘ 否</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>半導體、台股、台積電、外資、金融、金融機構、美元、商業、貿易</t>
+          <t>台股</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>央行</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>波動、美中貿易戰</t>
+          <t>降息、殖利率</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3083,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-06-13_2115_聯合產經_00919 ETF 攻略／配息0.72元、殖利率近13% 下周除息要先上車嗎？（2025最新）.txt</t>
+          <t>2025-06-13_2115_聯合產經_職場活用AI術1／上萬通客訴全靠AI當軍師 菜鳥不敢電老鳥 討厭的事交給AI就對了.txt</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3083,12 +3093,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>台股</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>降息、殖利率</t>
+          <t>經濟</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>考驗、疑慮、難題</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3115,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-06-13_2115_聯合產經_職場活用AI術1／上萬通客訴全靠AI當軍師 菜鳥不敢電老鳥 討厭的事交給AI就對了.txt</t>
+          <t>2025-06-13_2115_聯合產經_長榮、萬海市值大躍進.txt</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3115,12 +3125,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>經濟</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>考驗、疑慮、難題</t>
+          <t>美元、海運、經濟</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3142,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-06-13_2115_聯合產經_長榮、萬海市值大躍進.txt</t>
+          <t>2025-06-13_2145_聯合產經_臺灣企銀推台北綠食巡禮 台灣 Pay 享20%現金回饋.txt</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3147,7 +3152,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>美元、海運、經濟</t>
+          <t>金融</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>淨零</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3174,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-06-13_2145_聯合產經_臺灣企銀推台北綠食巡禮 台灣 Pay 享20%現金回饋.txt</t>
+          <t>2025-06-13_2207_聯合產經_樂觀看待2028年資料中心AI加速器 蘇姿丰：TAM將超過5000億美元.txt</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3174,12 +3184,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>金融</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>淨零</t>
+          <t>美元</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3201,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-06-13_2207_聯合產經_樂觀看待2028年資料中心AI加速器 蘇姿丰：TAM將超過5000億美元.txt</t>
+          <t>2025-06-13_2223_聯合產經_超微下一代伺服器處理器Venice 強調運算效能將比現今提升七成.txt</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3206,7 +3211,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>美元</t>
+          <t>台積電</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3228,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-06-13_2223_聯合產經_超微下一代伺服器處理器Venice 強調運算效能將比現今提升七成.txt</t>
+          <t>2025-06-13_2345_聯合產經_超微伺服器晶片 台積操刀…新一代處理器將採2奈米製程.txt</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3233,7 +3238,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>台積電、美元</t>
         </is>
       </c>
     </row>
@@ -3250,17 +3255,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-06-13_2345_聯合產經_超微伺服器晶片 台積操刀…新一代處理器將採2奈米製程.txt</t>
+          <t>2025-06-13_1131_聯合產經_兼職跑計程車10年扣除成本賺500萬！小師傅：以前用時間拚錢現在用錢換回人生.txt</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>✘ 否</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>台積電、美元</t>
         </is>
       </c>
     </row>
